--- a/reports/recon_report/templates/xlsx/template.xlsx
+++ b/reports/recon_report/templates/xlsx/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\global-connect-reports\reports\recon_report\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D0D9D-1237-4E47-BADA-5FEDA9860DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38965B18-AC8B-48DF-8BEB-8B66D0F581EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Month Year</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Subscription Id</t>
+  </si>
+  <si>
+    <t>Consumption</t>
   </si>
 </sst>
 </file>
@@ -436,18 +439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="5" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,47 +480,50 @@
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
